--- a/storage/app/public/contoh_upload_master_process.xlsx
+++ b/storage/app/public/contoh_upload_master_process.xlsx
@@ -35,13 +35,13 @@
     <t>class</t>
   </si>
   <si>
+    <t>machine type</t>
+  </si>
+  <si>
     <t>smv</t>
   </si>
   <si>
     <t>amv</t>
-  </si>
-  <si>
-    <t>machine type</t>
   </si>
   <si>
     <t>remark</t>
@@ -62,7 +62,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>warna abu ini yang di isi, untuk angka koma gunakan titik (.)</t>
+    <t>warna abu ini yang di isi</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1321,14 +1321,14 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.5</v>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="4">
         <v>0.5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="4">
+        <v>0.5</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
